--- a/testdata/99CENTS.xlsx
+++ b/testdata/99CENTS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/dd4/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jisqhx3/automation/rulesBotGithubSyncVersion/omRules/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AE1453-9780-C144-86D6-3DD3955DC421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C2E7A4-754C-084D-9E90-9BDB8EAD85F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="32680" windowHeight="20540" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="32680" windowHeight="20540" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Gold" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="t2-Serv_O" sheetId="8" r:id="rId9"/>
     <sheet name="t1-Flt" sheetId="9" r:id="rId10"/>
     <sheet name="t2-Flt" sheetId="10" r:id="rId11"/>
+    <sheet name="t1-Cus" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DB2 Querry results'!$A$1:$G$230</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="207">
   <si>
     <t>TP</t>
   </si>
@@ -628,6 +629,45 @@
   </si>
   <si>
     <t>Brokerage</t>
+  </si>
+  <si>
+    <t>ALCAE8</t>
+  </si>
+  <si>
+    <t>ALSTDM</t>
+  </si>
+  <si>
+    <t>HJBB</t>
+  </si>
+  <si>
+    <t>CBCAAB</t>
+  </si>
+  <si>
+    <t>ABRE3</t>
+  </si>
+  <si>
+    <t>ADCA41</t>
+  </si>
+  <si>
+    <t>AJWA13</t>
+  </si>
+  <si>
+    <t>ALLIB1</t>
+  </si>
+  <si>
+    <t>BBAU37</t>
+  </si>
+  <si>
+    <t>GEATB2</t>
+  </si>
+  <si>
+    <t>JULE16</t>
+  </si>
+  <si>
+    <t>KRHA15</t>
+  </si>
+  <si>
+    <t>PJJE10</t>
   </si>
 </sst>
 </file>
@@ -2441,6 +2481,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E5C497-2162-3E41-9012-3597A9ED32BC}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDEAC11-19B7-41B7-89D4-B70C7BD7E060}">
   <sheetPr filterMode="1"/>
@@ -7998,7 +8183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9A0DBF-D3B6-4958-A13F-97CF8D4A51F7}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
